--- a/xlsx/格瑞那達_intext.xlsx
+++ b/xlsx/格瑞那達_intext.xlsx
@@ -29,7 +29,7 @@
     <t>格林納達國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_格瑞那達</t>
+    <t>体育运动_体育运动_南非_格瑞那達</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94%E5%9C%8B%E5%BE%BD</t>
